--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H2">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I2">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J2">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.5535128604418</v>
+        <v>55.9484575</v>
       </c>
       <c r="N2">
-        <v>54.5535128604418</v>
+        <v>111.896915</v>
       </c>
       <c r="O2">
-        <v>0.434431607541591</v>
+        <v>0.4236195045309116</v>
       </c>
       <c r="P2">
-        <v>0.434431607541591</v>
+        <v>0.3537406883573876</v>
       </c>
       <c r="Q2">
-        <v>25301.09749307525</v>
+        <v>26031.34991455515</v>
       </c>
       <c r="R2">
-        <v>25301.09749307525</v>
+        <v>104125.3996582206</v>
       </c>
       <c r="S2">
-        <v>0.2455574874211178</v>
+        <v>0.2355657770951022</v>
       </c>
       <c r="T2">
-        <v>0.2455574874211178</v>
+        <v>0.16693985712971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H3">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I3">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J3">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.03834459622781</v>
+        <v>2.360452</v>
       </c>
       <c r="N3">
-        <v>2.03834459622781</v>
+        <v>7.081356</v>
       </c>
       <c r="O3">
-        <v>0.01623215945650088</v>
+        <v>0.01787240527067255</v>
       </c>
       <c r="P3">
-        <v>0.01623215945650088</v>
+        <v>0.02238635217015337</v>
       </c>
       <c r="Q3">
-        <v>945.3535189489037</v>
+        <v>1098.256408025396</v>
       </c>
       <c r="R3">
-        <v>945.3535189489037</v>
+        <v>6589.538448152376</v>
       </c>
       <c r="S3">
-        <v>0.009175042106427981</v>
+        <v>0.009938463623875387</v>
       </c>
       <c r="T3">
-        <v>0.009175042106427981</v>
+        <v>0.01056472878563823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H4">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I4">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J4">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.752405758797317</v>
+        <v>2.631462</v>
       </c>
       <c r="N4">
-        <v>0.752405758797317</v>
+        <v>7.894386</v>
       </c>
       <c r="O4">
-        <v>0.005991710270868556</v>
+        <v>0.01992438537973851</v>
       </c>
       <c r="P4">
-        <v>0.005991710270868556</v>
+        <v>0.02495659096409337</v>
       </c>
       <c r="Q4">
-        <v>348.9544570004434</v>
+        <v>1224.350253246126</v>
       </c>
       <c r="R4">
-        <v>348.9544570004434</v>
+        <v>7346.101519476756</v>
       </c>
       <c r="S4">
-        <v>0.003386745563463472</v>
+        <v>0.01107952602493521</v>
       </c>
       <c r="T4">
-        <v>0.003386745563463472</v>
+        <v>0.01177769441603267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H5">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I5">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J5">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.378831033156087</v>
+        <v>0.4270753333333333</v>
       </c>
       <c r="N5">
-        <v>0.378831033156087</v>
+        <v>1.281226</v>
       </c>
       <c r="O5">
-        <v>0.003016784182929844</v>
+        <v>0.003233644843632026</v>
       </c>
       <c r="P5">
-        <v>0.003016784182929844</v>
+        <v>0.004050350871437182</v>
       </c>
       <c r="Q5">
-        <v>175.6961266234938</v>
+        <v>198.7069516952326</v>
       </c>
       <c r="R5">
-        <v>175.6961266234938</v>
+        <v>1192.241710171396</v>
       </c>
       <c r="S5">
-        <v>0.001705202685974227</v>
+        <v>0.001798160972977967</v>
       </c>
       <c r="T5">
-        <v>0.001705202685974227</v>
+        <v>0.001911470797839867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H6">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I6">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J6">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.5048646364917</v>
+        <v>46.760844</v>
       </c>
       <c r="N6">
-        <v>44.5048646364917</v>
+        <v>140.282532</v>
       </c>
       <c r="O6">
-        <v>0.354410172208577</v>
+        <v>0.3540545432682795</v>
       </c>
       <c r="P6">
-        <v>0.354410172208577</v>
+        <v>0.4434763856912163</v>
       </c>
       <c r="Q6">
-        <v>20640.68581549589</v>
+        <v>21756.59431654441</v>
       </c>
       <c r="R6">
-        <v>20640.68581549589</v>
+        <v>130539.5658992665</v>
       </c>
       <c r="S6">
-        <v>0.2003262881734314</v>
+        <v>0.1968821849017525</v>
       </c>
       <c r="T6">
-        <v>0.2003262881734314</v>
+        <v>0.2092885746660126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H7">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I7">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J7">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.3464972856855</v>
+        <v>23.9441395</v>
       </c>
       <c r="N7">
-        <v>23.3464972856855</v>
+        <v>47.888279</v>
       </c>
       <c r="O7">
-        <v>0.1859175663395328</v>
+        <v>0.1812955167067658</v>
       </c>
       <c r="P7">
-        <v>0.1859175663395328</v>
+        <v>0.1513896319457121</v>
       </c>
       <c r="Q7">
-        <v>10827.75375910342</v>
+        <v>11140.58012640333</v>
       </c>
       <c r="R7">
-        <v>10827.75375910342</v>
+        <v>44562.32050561333</v>
       </c>
       <c r="S7">
-        <v>0.1050877736915446</v>
+        <v>0.1008145725588776</v>
       </c>
       <c r="T7">
-        <v>0.1050877736915446</v>
+        <v>0.0714448870591981</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H8">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I8">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J8">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.5535128604418</v>
+        <v>55.9484575</v>
       </c>
       <c r="N8">
-        <v>54.5535128604418</v>
+        <v>111.896915</v>
       </c>
       <c r="O8">
-        <v>0.434431607541591</v>
+        <v>0.4236195045309116</v>
       </c>
       <c r="P8">
-        <v>0.434431607541591</v>
+        <v>0.3537406883573876</v>
       </c>
       <c r="Q8">
-        <v>2239.706138757477</v>
+        <v>2574.178869141339</v>
       </c>
       <c r="R8">
-        <v>2239.706138757477</v>
+        <v>15445.07321484803</v>
       </c>
       <c r="S8">
-        <v>0.02173726306321157</v>
+        <v>0.02329454475781969</v>
       </c>
       <c r="T8">
-        <v>0.02173726306321157</v>
+        <v>0.02476243379913</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H9">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I9">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J9">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.03834459622781</v>
+        <v>2.360452</v>
       </c>
       <c r="N9">
-        <v>2.03834459622781</v>
+        <v>7.081356</v>
       </c>
       <c r="O9">
-        <v>0.01623215945650088</v>
+        <v>0.01787240527067255</v>
       </c>
       <c r="P9">
-        <v>0.01623215945650088</v>
+        <v>0.02238635217015337</v>
       </c>
       <c r="Q9">
-        <v>83.68467337297675</v>
+        <v>108.6039889486213</v>
       </c>
       <c r="R9">
-        <v>83.68467337297675</v>
+        <v>977.4359005375919</v>
       </c>
       <c r="S9">
-        <v>0.000812193942762733</v>
+        <v>0.0009827912550169056</v>
       </c>
       <c r="T9">
-        <v>0.000812193942762733</v>
+        <v>0.001567081712289137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H10">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I10">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J10">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.752405758797317</v>
+        <v>2.631462</v>
       </c>
       <c r="N10">
-        <v>0.752405758797317</v>
+        <v>7.894386</v>
       </c>
       <c r="O10">
-        <v>0.005991710270868556</v>
+        <v>0.01992438537973851</v>
       </c>
       <c r="P10">
-        <v>0.005991710270868556</v>
+        <v>0.02495659096409337</v>
       </c>
       <c r="Q10">
-        <v>30.89017935702521</v>
+        <v>121.073112254228</v>
       </c>
       <c r="R10">
-        <v>30.89017935702521</v>
+        <v>1089.658010288052</v>
       </c>
       <c r="S10">
-        <v>0.0002998018102169221</v>
+        <v>0.001095628227775569</v>
       </c>
       <c r="T10">
-        <v>0.0002998018102169221</v>
+        <v>0.001747002682869127</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H11">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I11">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J11">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.378831033156087</v>
+        <v>0.4270753333333333</v>
       </c>
       <c r="N11">
-        <v>0.378831033156087</v>
+        <v>1.281226</v>
       </c>
       <c r="O11">
-        <v>0.003016784182929844</v>
+        <v>0.003233644843632026</v>
       </c>
       <c r="P11">
-        <v>0.003016784182929844</v>
+        <v>0.004050350871437182</v>
       </c>
       <c r="Q11">
-        <v>15.55298909315103</v>
+        <v>19.64966234499244</v>
       </c>
       <c r="R11">
-        <v>15.55298909315103</v>
+        <v>176.846961104932</v>
       </c>
       <c r="S11">
-        <v>0.0001509481130076469</v>
+        <v>0.0001778159025616407</v>
       </c>
       <c r="T11">
-        <v>0.0001509481130076469</v>
+        <v>0.0002835312663152879</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H12">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I12">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J12">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.5048646364917</v>
+        <v>46.760844</v>
       </c>
       <c r="N12">
-        <v>44.5048646364917</v>
+        <v>140.282532</v>
       </c>
       <c r="O12">
-        <v>0.354410172208577</v>
+        <v>0.3540545432682795</v>
       </c>
       <c r="P12">
-        <v>0.354410172208577</v>
+        <v>0.4434763856912163</v>
       </c>
       <c r="Q12">
-        <v>1827.156736650777</v>
+        <v>2151.458358400936</v>
       </c>
       <c r="R12">
-        <v>1827.156736650777</v>
+        <v>19363.12522560843</v>
       </c>
       <c r="S12">
-        <v>0.01773330257706538</v>
+        <v>0.01946921545551858</v>
       </c>
       <c r="T12">
-        <v>0.01773330257706538</v>
+        <v>0.03104408116903254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H13">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I13">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J13">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.3464972856855</v>
+        <v>23.9441395</v>
       </c>
       <c r="N13">
-        <v>23.3464972856855</v>
+        <v>47.888279</v>
       </c>
       <c r="O13">
-        <v>0.1859175663395328</v>
+        <v>0.1812955167067658</v>
       </c>
       <c r="P13">
-        <v>0.1859175663395328</v>
+        <v>0.1513896319457121</v>
       </c>
       <c r="Q13">
-        <v>958.4954395695929</v>
+        <v>1101.665724040246</v>
       </c>
       <c r="R13">
-        <v>958.4954395695929</v>
+        <v>6609.994344241478</v>
       </c>
       <c r="S13">
-        <v>0.009302589814917205</v>
+        <v>0.00996931558426304</v>
       </c>
       <c r="T13">
-        <v>0.009302589814917205</v>
+        <v>0.01059752486019625</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H14">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I14">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J14">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.5535128604418</v>
+        <v>55.9484575</v>
       </c>
       <c r="N14">
-        <v>54.5535128604418</v>
+        <v>111.896915</v>
       </c>
       <c r="O14">
-        <v>0.434431607541591</v>
+        <v>0.4236195045309116</v>
       </c>
       <c r="P14">
-        <v>0.434431607541591</v>
+        <v>0.3537406883573876</v>
       </c>
       <c r="Q14">
-        <v>21.1338316576801</v>
+        <v>24.56016062592083</v>
       </c>
       <c r="R14">
-        <v>21.1338316576801</v>
+        <v>147.360963755525</v>
       </c>
       <c r="S14">
-        <v>0.0002051124700365728</v>
+        <v>0.0002222525279102277</v>
       </c>
       <c r="T14">
-        <v>0.0002051124700365728</v>
+        <v>0.0002362576116547134</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H15">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I15">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J15">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.03834459622781</v>
+        <v>2.360452</v>
       </c>
       <c r="N15">
-        <v>2.03834459622781</v>
+        <v>7.081356</v>
       </c>
       <c r="O15">
-        <v>0.01623215945650088</v>
+        <v>0.01787240527067255</v>
       </c>
       <c r="P15">
-        <v>0.01623215945650088</v>
+        <v>0.02238635217015337</v>
       </c>
       <c r="Q15">
-        <v>0.7896472527300343</v>
+        <v>1.036187284873333</v>
       </c>
       <c r="R15">
-        <v>0.7896472527300343</v>
+        <v>9.325685563859999</v>
       </c>
       <c r="S15">
-        <v>7.663849182133141E-06</v>
+        <v>9.376780834587848E-06</v>
       </c>
       <c r="T15">
-        <v>7.663849182133141E-06</v>
+        <v>1.495147793696345E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H16">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I16">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J16">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.752405758797317</v>
+        <v>2.631462</v>
       </c>
       <c r="N16">
-        <v>0.752405758797317</v>
+        <v>7.894386</v>
       </c>
       <c r="O16">
-        <v>0.005991710270868556</v>
+        <v>0.01992438537973851</v>
       </c>
       <c r="P16">
-        <v>0.005991710270868556</v>
+        <v>0.02495659096409337</v>
       </c>
       <c r="Q16">
-        <v>0.2914792432408501</v>
+        <v>1.15515480299</v>
       </c>
       <c r="R16">
-        <v>0.2914792432408501</v>
+        <v>10.39639322691</v>
       </c>
       <c r="S16">
-        <v>2.82892513359239E-06</v>
+        <v>1.045335488649895E-05</v>
       </c>
       <c r="T16">
-        <v>2.82892513359239E-06</v>
+        <v>1.666809832818364E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H17">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I17">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J17">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.378831033156087</v>
+        <v>0.4270753333333333</v>
       </c>
       <c r="N17">
-        <v>0.378831033156087</v>
+        <v>1.281226</v>
       </c>
       <c r="O17">
-        <v>0.003016784182929844</v>
+        <v>0.003233644843632026</v>
       </c>
       <c r="P17">
-        <v>0.003016784182929844</v>
+        <v>0.004050350871437182</v>
       </c>
       <c r="Q17">
-        <v>0.146757758788275</v>
+        <v>0.1874768180344444</v>
       </c>
       <c r="R17">
-        <v>0.146757758788275</v>
+        <v>1.68729136231</v>
       </c>
       <c r="S17">
-        <v>1.424344003949492E-06</v>
+        <v>1.696536002649161E-06</v>
       </c>
       <c r="T17">
-        <v>1.424344003949492E-06</v>
+        <v>2.705163004269795E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H18">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I18">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J18">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.5048646364917</v>
+        <v>46.760844</v>
       </c>
       <c r="N18">
-        <v>44.5048646364917</v>
+        <v>140.282532</v>
       </c>
       <c r="O18">
-        <v>0.354410172208577</v>
+        <v>0.3540545432682795</v>
       </c>
       <c r="P18">
-        <v>0.354410172208577</v>
+        <v>0.4434763856912163</v>
       </c>
       <c r="Q18">
-        <v>17.24102203246897</v>
+        <v>20.52699736438</v>
       </c>
       <c r="R18">
-        <v>17.24102203246897</v>
+        <v>184.74297627942</v>
       </c>
       <c r="S18">
-        <v>0.0001673311622953881</v>
+        <v>0.0001857551798673949</v>
       </c>
       <c r="T18">
-        <v>0.0001673311622953881</v>
+        <v>0.0002961906140772148</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H19">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I19">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J19">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.3464972856855</v>
+        <v>23.9441395</v>
       </c>
       <c r="N19">
-        <v>23.3464972856855</v>
+        <v>47.888279</v>
       </c>
       <c r="O19">
-        <v>0.1859175663395328</v>
+        <v>0.1812955167067658</v>
       </c>
       <c r="P19">
-        <v>0.1859175663395328</v>
+        <v>0.1513896319457121</v>
       </c>
       <c r="Q19">
-        <v>9.044347789195093</v>
+        <v>10.51095845081083</v>
       </c>
       <c r="R19">
-        <v>9.044347789195093</v>
+        <v>63.065750704865</v>
       </c>
       <c r="S19">
-        <v>8.777909017920415E-05</v>
+        <v>9.511693030161081E-05</v>
       </c>
       <c r="T19">
-        <v>8.777909017920415E-05</v>
+        <v>0.0001011106554885322</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H20">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I20">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J20">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.5535128604418</v>
+        <v>55.9484575</v>
       </c>
       <c r="N20">
-        <v>54.5535128604418</v>
+        <v>111.896915</v>
       </c>
       <c r="O20">
-        <v>0.434431607541591</v>
+        <v>0.4236195045309116</v>
       </c>
       <c r="P20">
-        <v>0.434431607541591</v>
+        <v>0.3537406883573876</v>
       </c>
       <c r="Q20">
-        <v>45.73463364865086</v>
+        <v>50.32293334580417</v>
       </c>
       <c r="R20">
-        <v>45.73463364865086</v>
+        <v>301.937600074825</v>
       </c>
       <c r="S20">
-        <v>0.0004438733035182258</v>
+        <v>0.0004553878664848323</v>
       </c>
       <c r="T20">
-        <v>0.0004438733035182258</v>
+        <v>0.0004840838064874533</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H21">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I21">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J21">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.03834459622781</v>
+        <v>2.360452</v>
       </c>
       <c r="N21">
-        <v>2.03834459622781</v>
+        <v>7.081356</v>
       </c>
       <c r="O21">
-        <v>0.01623215945650088</v>
+        <v>0.01787240527067255</v>
       </c>
       <c r="P21">
-        <v>0.01623215945650088</v>
+        <v>0.02238635217015337</v>
       </c>
       <c r="Q21">
-        <v>1.708834838861211</v>
+        <v>2.123112485486667</v>
       </c>
       <c r="R21">
-        <v>1.708834838861211</v>
+        <v>19.10801236938</v>
       </c>
       <c r="S21">
-        <v>1.65849402210033E-05</v>
+        <v>1.921270484034087E-05</v>
       </c>
       <c r="T21">
-        <v>1.65849402210033E-05</v>
+        <v>3.063506949742775E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H22">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I22">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J22">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.752405758797317</v>
+        <v>2.631462</v>
       </c>
       <c r="N22">
-        <v>0.752405758797317</v>
+        <v>7.894386</v>
       </c>
       <c r="O22">
-        <v>0.005991710270868556</v>
+        <v>0.01992438537973851</v>
       </c>
       <c r="P22">
-        <v>0.005991710270868556</v>
+        <v>0.02495659096409337</v>
       </c>
       <c r="Q22">
-        <v>0.6307751770589055</v>
+        <v>2.36687288167</v>
       </c>
       <c r="R22">
-        <v>0.6307751770589055</v>
+        <v>21.30185593503</v>
       </c>
       <c r="S22">
-        <v>6.121930783776805E-06</v>
+        <v>2.141856843713537E-05</v>
       </c>
       <c r="T22">
-        <v>6.121930783776805E-06</v>
+        <v>3.415236626283451E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H23">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I23">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J23">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.378831033156087</v>
+        <v>0.4270753333333333</v>
       </c>
       <c r="N23">
-        <v>0.378831033156087</v>
+        <v>1.281226</v>
       </c>
       <c r="O23">
-        <v>0.003016784182929844</v>
+        <v>0.003233644843632026</v>
       </c>
       <c r="P23">
-        <v>0.003016784182929844</v>
+        <v>0.004050350871437182</v>
       </c>
       <c r="Q23">
-        <v>0.3175908865934254</v>
+        <v>0.3841336203588889</v>
       </c>
       <c r="R23">
-        <v>0.3175908865934254</v>
+        <v>3.45720258323</v>
       </c>
       <c r="S23">
-        <v>3.082349299712046E-06</v>
+        <v>3.476144536691922E-06</v>
       </c>
       <c r="T23">
-        <v>3.082349299712046E-06</v>
+        <v>5.54278693966401E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H24">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I24">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J24">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>44.5048646364917</v>
+        <v>46.760844</v>
       </c>
       <c r="N24">
-        <v>44.5048646364917</v>
+        <v>140.282532</v>
       </c>
       <c r="O24">
-        <v>0.354410172208577</v>
+        <v>0.3540545432682795</v>
       </c>
       <c r="P24">
-        <v>0.354410172208577</v>
+        <v>0.4434763856912163</v>
       </c>
       <c r="Q24">
-        <v>37.31040538012132</v>
+        <v>42.05911907054</v>
       </c>
       <c r="R24">
-        <v>37.31040538012132</v>
+        <v>378.53207163486</v>
       </c>
       <c r="S24">
-        <v>0.0003621127266243484</v>
+        <v>0.0003806060423415618</v>
       </c>
       <c r="T24">
-        <v>0.0003621127266243484</v>
+        <v>0.0006068844889446502</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H25">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I25">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J25">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.3464972856855</v>
+        <v>23.9441395</v>
       </c>
       <c r="N25">
-        <v>23.3464972856855</v>
+        <v>47.888279</v>
       </c>
       <c r="O25">
-        <v>0.1859175663395328</v>
+        <v>0.1812955167067658</v>
       </c>
       <c r="P25">
-        <v>0.1859175663395328</v>
+        <v>0.1513896319457121</v>
       </c>
       <c r="Q25">
-        <v>19.57240596167543</v>
+        <v>21.53659618017416</v>
       </c>
       <c r="R25">
-        <v>19.57240596167543</v>
+        <v>129.219577081045</v>
       </c>
       <c r="S25">
-        <v>0.0001899581957680111</v>
+        <v>0.0001948913533803894</v>
       </c>
       <c r="T25">
-        <v>0.0001899581957680111</v>
+        <v>0.0002071722923232796</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H26">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I26">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J26">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.5535128604418</v>
+        <v>55.9484575</v>
       </c>
       <c r="N26">
-        <v>54.5535128604418</v>
+        <v>111.896915</v>
       </c>
       <c r="O26">
-        <v>0.434431607541591</v>
+        <v>0.4236195045309116</v>
       </c>
       <c r="P26">
-        <v>0.434431607541591</v>
+        <v>0.3537406883573876</v>
       </c>
       <c r="Q26">
-        <v>13187.25754721994</v>
+        <v>14045.58097932465</v>
       </c>
       <c r="R26">
-        <v>13187.25754721994</v>
+        <v>84273.48587594788</v>
       </c>
       <c r="S26">
-        <v>0.1279877218826885</v>
+        <v>0.1271028282823242</v>
       </c>
       <c r="T26">
-        <v>0.1279877218826885</v>
+        <v>0.1351121219042799</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H27">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I27">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J27">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.03834459622781</v>
+        <v>2.360452</v>
       </c>
       <c r="N27">
-        <v>2.03834459622781</v>
+        <v>7.081356</v>
       </c>
       <c r="O27">
-        <v>0.01623215945650088</v>
+        <v>0.01787240527067255</v>
       </c>
       <c r="P27">
-        <v>0.01623215945650088</v>
+        <v>0.02238635217015337</v>
       </c>
       <c r="Q27">
-        <v>492.7304173647763</v>
+        <v>592.5796920104334</v>
       </c>
       <c r="R27">
-        <v>492.7304173647763</v>
+        <v>5333.2172280939</v>
       </c>
       <c r="S27">
-        <v>0.004782149995555267</v>
+        <v>0.005362437833512544</v>
       </c>
       <c r="T27">
-        <v>0.004782149995555267</v>
+        <v>0.008550522015013587</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H28">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I28">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J28">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.752405758797317</v>
+        <v>2.631462</v>
       </c>
       <c r="N28">
-        <v>0.752405758797317</v>
+        <v>7.894386</v>
       </c>
       <c r="O28">
-        <v>0.005991710270868556</v>
+        <v>0.01992438537973851</v>
       </c>
       <c r="P28">
-        <v>0.005991710270868556</v>
+        <v>0.02495659096409337</v>
       </c>
       <c r="Q28">
-        <v>181.8795527733375</v>
+        <v>660.6153997188501</v>
       </c>
       <c r="R28">
-        <v>181.8795527733375</v>
+        <v>5945.53859746965</v>
       </c>
       <c r="S28">
-        <v>0.001765215362871947</v>
+        <v>0.005978114101134269</v>
       </c>
       <c r="T28">
-        <v>0.001765215362871947</v>
+        <v>0.009532231014514036</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H29">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I29">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J29">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.378831033156087</v>
+        <v>0.4270753333333333</v>
       </c>
       <c r="N29">
-        <v>0.378831033156087</v>
+        <v>1.281226</v>
       </c>
       <c r="O29">
-        <v>0.003016784182929844</v>
+        <v>0.003233644843632026</v>
       </c>
       <c r="P29">
-        <v>0.003016784182929844</v>
+        <v>0.004050350871437182</v>
       </c>
       <c r="Q29">
-        <v>91.57508177133874</v>
+        <v>107.2151306156278</v>
       </c>
       <c r="R29">
-        <v>91.57508177133874</v>
+        <v>964.9361755406501</v>
       </c>
       <c r="S29">
-        <v>0.0008887735797353407</v>
+        <v>0.000970223044241801</v>
       </c>
       <c r="T29">
-        <v>0.0008887735797353407</v>
+        <v>0.001547041430936081</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H30">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I30">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J30">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>44.5048646364917</v>
+        <v>46.760844</v>
       </c>
       <c r="N30">
-        <v>44.5048646364917</v>
+        <v>140.282532</v>
       </c>
       <c r="O30">
-        <v>0.354410172208577</v>
+        <v>0.3540545432682795</v>
       </c>
       <c r="P30">
-        <v>0.354410172208577</v>
+        <v>0.4434763856912163</v>
       </c>
       <c r="Q30">
-        <v>10758.19101818376</v>
+        <v>11739.0764716537</v>
       </c>
       <c r="R30">
-        <v>10758.19101818376</v>
+        <v>105651.6882448833</v>
       </c>
       <c r="S30">
-        <v>0.1044126388724708</v>
+        <v>0.1062305520267212</v>
       </c>
       <c r="T30">
-        <v>0.1044126388724708</v>
+        <v>0.1693868911812721</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H31">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I31">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J31">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.3464972856855</v>
+        <v>23.9441395</v>
       </c>
       <c r="N31">
-        <v>23.3464972856855</v>
+        <v>47.888279</v>
       </c>
       <c r="O31">
-        <v>0.1859175663395328</v>
+        <v>0.1812955167067658</v>
       </c>
       <c r="P31">
-        <v>0.1859175663395328</v>
+        <v>0.1513896319457121</v>
       </c>
       <c r="Q31">
-        <v>5643.564573365088</v>
+        <v>6011.056700311996</v>
       </c>
       <c r="R31">
-        <v>5643.564573365088</v>
+        <v>36066.34020187197</v>
       </c>
       <c r="S31">
-        <v>0.05477309974848536</v>
+        <v>0.05439592058881185</v>
       </c>
       <c r="T31">
-        <v>0.05477309974848536</v>
+        <v>0.05782364053588223</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H32">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I32">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J32">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>54.5535128604418</v>
+        <v>55.9484575</v>
       </c>
       <c r="N32">
-        <v>54.5535128604418</v>
+        <v>111.896915</v>
       </c>
       <c r="O32">
-        <v>0.434431607541591</v>
+        <v>0.4236195045309116</v>
       </c>
       <c r="P32">
-        <v>0.434431607541591</v>
+        <v>0.3537406883573876</v>
       </c>
       <c r="Q32">
-        <v>3966.875715023939</v>
+        <v>4086.356920889701</v>
       </c>
       <c r="R32">
-        <v>3966.875715023939</v>
+        <v>16345.4276835588</v>
       </c>
       <c r="S32">
-        <v>0.03850014940101837</v>
+        <v>0.03697871400127047</v>
       </c>
       <c r="T32">
-        <v>0.03850014940101837</v>
+        <v>0.02620593410612551</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H33">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I33">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J33">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.03834459622781</v>
+        <v>2.360452</v>
       </c>
       <c r="N33">
-        <v>2.03834459622781</v>
+        <v>7.081356</v>
       </c>
       <c r="O33">
-        <v>0.01623215945650088</v>
+        <v>0.01787240527067255</v>
       </c>
       <c r="P33">
-        <v>0.01623215945650088</v>
+        <v>0.02238635217015337</v>
       </c>
       <c r="Q33">
-        <v>148.2188635278453</v>
+        <v>172.402418183342</v>
       </c>
       <c r="R33">
-        <v>148.2188635278453</v>
+        <v>1034.414509100052</v>
       </c>
       <c r="S33">
-        <v>0.001438524622351764</v>
+        <v>0.001560123072592786</v>
       </c>
       <c r="T33">
-        <v>0.001438524622351764</v>
+        <v>0.001658433109778018</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H34">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I34">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J34">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.752405758797317</v>
+        <v>2.631462</v>
       </c>
       <c r="N34">
-        <v>0.752405758797317</v>
+        <v>7.894386</v>
       </c>
       <c r="O34">
-        <v>0.005991710270868556</v>
+        <v>0.01992438537973851</v>
       </c>
       <c r="P34">
-        <v>0.005991710270868556</v>
+        <v>0.02495659096409337</v>
       </c>
       <c r="Q34">
-        <v>54.71141959368709</v>
+        <v>192.196414990677</v>
       </c>
       <c r="R34">
-        <v>54.71141959368709</v>
+        <v>1153.178489944062</v>
       </c>
       <c r="S34">
-        <v>0.0005309966783988455</v>
+        <v>0.001739245102569829</v>
       </c>
       <c r="T34">
-        <v>0.0005309966783988455</v>
+        <v>0.001848842386086513</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H35">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I35">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J35">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.378831033156087</v>
+        <v>0.4270753333333333</v>
       </c>
       <c r="N35">
-        <v>0.378831033156087</v>
+        <v>1.281226</v>
       </c>
       <c r="O35">
-        <v>0.003016784182929844</v>
+        <v>0.003233644843632026</v>
       </c>
       <c r="P35">
-        <v>0.003016784182929844</v>
+        <v>0.004050350871437182</v>
       </c>
       <c r="Q35">
-        <v>27.54681681762079</v>
+        <v>31.19267844172366</v>
       </c>
       <c r="R35">
-        <v>27.54681681762079</v>
+        <v>187.156070650342</v>
       </c>
       <c r="S35">
-        <v>0.0002673531109089677</v>
+        <v>0.000282272243311276</v>
       </c>
       <c r="T35">
-        <v>0.0002673531109089677</v>
+        <v>0.0003000594264020127</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H36">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I36">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J36">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>44.5048646364917</v>
+        <v>46.760844</v>
       </c>
       <c r="N36">
-        <v>44.5048646364917</v>
+        <v>140.282532</v>
       </c>
       <c r="O36">
-        <v>0.354410172208577</v>
+        <v>0.3540545432682795</v>
       </c>
       <c r="P36">
-        <v>0.354410172208577</v>
+        <v>0.4434763856912163</v>
       </c>
       <c r="Q36">
-        <v>3236.185123010553</v>
+        <v>3415.313076433673</v>
       </c>
       <c r="R36">
-        <v>3236.185123010553</v>
+        <v>20491.87845860204</v>
       </c>
       <c r="S36">
-        <v>0.03140849869668968</v>
+        <v>0.03090622966207825</v>
       </c>
       <c r="T36">
-        <v>0.03140849869668968</v>
+        <v>0.03285376357187723</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H37">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I37">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J37">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>23.3464972856855</v>
+        <v>23.9441395</v>
       </c>
       <c r="N37">
-        <v>23.3464972856855</v>
+        <v>47.888279</v>
       </c>
       <c r="O37">
-        <v>0.1859175663395328</v>
+        <v>0.1812955167067658</v>
       </c>
       <c r="P37">
-        <v>0.1859175663395328</v>
+        <v>0.1513896319457121</v>
       </c>
       <c r="Q37">
-        <v>1697.647837094905</v>
+        <v>1748.829271308748</v>
       </c>
       <c r="R37">
-        <v>1697.647837094905</v>
+        <v>6995.317085234992</v>
       </c>
       <c r="S37">
-        <v>0.01647636579863837</v>
+        <v>0.01582569969113131</v>
       </c>
       <c r="T37">
-        <v>0.01647636579863837</v>
+        <v>0.01121529654262366</v>
       </c>
     </row>
   </sheetData>
